--- a/doc/WFE.xlsx
+++ b/doc/WFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\Convergence\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6315F96-F088-4F58-B76E-5BAB8A568BFF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D255CC18-D2E2-4FDB-9D10-A3970A278286}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>Old State</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>B: Boad, M: Management, G: Governors</t>
-  </si>
-  <si>
     <t>See procedure codes mappings</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>payload.distributions[].version</t>
   </si>
   <si>
-    <t>payload.distributions[].versionId</t>
-  </si>
-  <si>
     <t>payload.isPN</t>
   </si>
   <si>
@@ -200,10 +194,40 @@
     <t>payload.distributions[].procedure</t>
   </si>
   <si>
-    <t>Many distributions can happen for the same WorkflowID</t>
-  </si>
-  <si>
-    <t>Files manually added by users</t>
+    <t>B: Boad, M: Management, G: Governors (OPC is M)</t>
+  </si>
+  <si>
+    <t>payload.distributions[].docId</t>
+  </si>
+  <si>
+    <t>payload.distributions[].url</t>
+  </si>
+  <si>
+    <t>IDBDoc url</t>
+  </si>
+  <si>
+    <t>payload.distributions[].lang</t>
+  </si>
+  <si>
+    <t>SP, EN, PT or FR</t>
+  </si>
+  <si>
+    <t>1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Files manually added by users (for clearance or translation)</t>
+  </si>
+  <si>
+    <t>Files distributed by SEC. Many distributions can happen for the same WorkflowID</t>
+  </si>
+  <si>
+    <t>i.e. "SU-L1036"</t>
+  </si>
+  <si>
+    <t>Expect null values</t>
+  </si>
+  <si>
+    <t>The user executing the action</t>
   </si>
 </sst>
 </file>
@@ -868,17 +892,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -907,6 +931,9 @@
       <c r="B3" t="s">
         <v>26</v>
       </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -923,6 +950,9 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -931,6 +961,9 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -940,7 +973,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,7 +992,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -969,6 +1002,9 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -978,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -989,18 +1025,18 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1013,18 +1049,18 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1032,7 +1068,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1040,18 +1076,18 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -1059,15 +1095,18 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1075,13 +1114,35 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/doc/WFE.xlsx
+++ b/doc/WFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\Convergence\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D255CC18-D2E2-4FDB-9D10-A3970A278286}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85A928-4874-4385-B12A-1ECF6B219077}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
   <si>
     <t>Old State</t>
   </si>
@@ -609,13 +609,15 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -634,10 +636,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,10 +647,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,10 +658,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,10 +669,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,10 +680,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,10 +702,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,10 +713,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,10 +768,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,21 +779,21 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,10 +801,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,21 +812,21 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -832,21 +834,21 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,10 +856,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -865,10 +867,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,10 +878,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +897,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1092,6 +1094,9 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1119,7 +1124,7 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>60</v>
       </c>
     </row>
